--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H2">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I2">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J2">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>3305.580423800409</v>
+        <v>3384.335309437429</v>
       </c>
       <c r="R2">
-        <v>3305.580423800409</v>
+        <v>13537.34123774972</v>
       </c>
       <c r="S2">
-        <v>0.005720702347538703</v>
+        <v>0.005320354692976206</v>
       </c>
       <c r="T2">
-        <v>0.005720702347538703</v>
+        <v>0.002901946844361689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H3">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I3">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J3">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>2236.993039563114</v>
+        <v>2442.24677885886</v>
       </c>
       <c r="R3">
-        <v>2236.993039563114</v>
+        <v>14653.48067315316</v>
       </c>
       <c r="S3">
-        <v>0.003871384051259475</v>
+        <v>0.003839341531873112</v>
       </c>
       <c r="T3">
-        <v>0.003871384051259475</v>
+        <v>0.003141209285601227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H4">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I4">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J4">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>1687.650938038516</v>
+        <v>1738.298891346278</v>
       </c>
       <c r="R4">
-        <v>1687.650938038516</v>
+        <v>10429.79334807767</v>
       </c>
       <c r="S4">
-        <v>0.002920681830503777</v>
+        <v>0.002732698098376914</v>
       </c>
       <c r="T4">
-        <v>0.002920681830503777</v>
+        <v>0.002235793968862802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H5">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I5">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J5">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>1586.81259422902</v>
+        <v>1637.613239200763</v>
       </c>
       <c r="R5">
-        <v>1586.81259422902</v>
+        <v>9825.679435204576</v>
       </c>
       <c r="S5">
-        <v>0.002746169013934734</v>
+        <v>0.00257441491041561</v>
       </c>
       <c r="T5">
-        <v>0.002746169013934734</v>
+        <v>0.002106292434380654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H6">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I6">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J6">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>2331.466595031427</v>
+        <v>2503.29981851883</v>
       </c>
       <c r="R6">
-        <v>2331.466595031427</v>
+        <v>15019.79891111298</v>
       </c>
       <c r="S6">
-        <v>0.004034881840227668</v>
+        <v>0.003935320149940178</v>
       </c>
       <c r="T6">
-        <v>0.004034881840227668</v>
+        <v>0.003219735492188625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H7">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I7">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J7">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>2803.266033351329</v>
+        <v>2877.046618837084</v>
       </c>
       <c r="R7">
-        <v>2803.266033351329</v>
+        <v>11508.18647534834</v>
       </c>
       <c r="S7">
-        <v>0.004851387206405099</v>
+        <v>0.004522869952559649</v>
       </c>
       <c r="T7">
-        <v>0.004851387206405099</v>
+        <v>0.002466964881799371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H8">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J8">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>113980.0319287328</v>
+        <v>122268.0175169336</v>
       </c>
       <c r="R8">
-        <v>113980.0319287328</v>
+        <v>733608.1051016016</v>
       </c>
       <c r="S8">
-        <v>0.1972560799103427</v>
+        <v>0.1922118115729045</v>
       </c>
       <c r="T8">
-        <v>0.1972560799103427</v>
+        <v>0.157260697518742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H9">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J9">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>77133.96904154465</v>
+        <v>88232.59063766552</v>
       </c>
       <c r="R9">
-        <v>77133.96904154465</v>
+        <v>794093.3157389897</v>
       </c>
       <c r="S9">
-        <v>0.1334895604396238</v>
+        <v>0.1387063144610764</v>
       </c>
       <c r="T9">
-        <v>0.1334895604396238</v>
+        <v>0.170226675332041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H10">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J10">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>58192.05196678662</v>
+        <v>62800.62105670101</v>
       </c>
       <c r="R10">
-        <v>58192.05196678662</v>
+        <v>565205.589510309</v>
       </c>
       <c r="S10">
-        <v>0.1007083070487686</v>
+        <v>0.09872590875647601</v>
       </c>
       <c r="T10">
-        <v>0.1007083070487686</v>
+        <v>0.1211609095234476</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H11">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J11">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>54715.03547543385</v>
+        <v>59163.08696074345</v>
       </c>
       <c r="R11">
-        <v>54715.03547543385</v>
+        <v>532467.7826466911</v>
       </c>
       <c r="S11">
-        <v>0.09469091407859728</v>
+        <v>0.09300751213533689</v>
       </c>
       <c r="T11">
-        <v>0.09469091407859728</v>
+        <v>0.1141430340299736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H12">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J12">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>80391.52066278738</v>
+        <v>90438.29233093187</v>
       </c>
       <c r="R12">
-        <v>80391.52066278738</v>
+        <v>813944.6309783868</v>
       </c>
       <c r="S12">
-        <v>0.1391271431989768</v>
+        <v>0.1421737945663576</v>
       </c>
       <c r="T12">
-        <v>0.1391271431989768</v>
+        <v>0.1744821240648214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H13">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J13">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>96659.68181732221</v>
+        <v>103940.8788508847</v>
       </c>
       <c r="R13">
-        <v>96659.68181732221</v>
+        <v>623645.2731053081</v>
       </c>
       <c r="S13">
-        <v>0.167281142126611</v>
+        <v>0.1634005770776596</v>
       </c>
       <c r="T13">
-        <v>0.167281142126611</v>
+        <v>0.1336883957126185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H14">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>54.26154832852046</v>
+        <v>103.9142531709705</v>
       </c>
       <c r="R14">
-        <v>54.26154832852046</v>
+        <v>623.4855190258229</v>
       </c>
       <c r="S14">
-        <v>9.390610032327397E-05</v>
+        <v>0.0001633587200959681</v>
       </c>
       <c r="T14">
-        <v>9.390610032327397E-05</v>
+        <v>0.0001336541498560139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H15">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>36.72054234495516</v>
+        <v>74.987915463528</v>
       </c>
       <c r="R15">
-        <v>36.72054234495516</v>
+        <v>674.891239171752</v>
       </c>
       <c r="S15">
-        <v>6.354929115721407E-05</v>
+        <v>0.0001178849822712168</v>
       </c>
       <c r="T15">
-        <v>6.354929115721407E-05</v>
+        <v>0.0001446737928375788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H16">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>27.70301768388591</v>
+        <v>53.373562181757</v>
       </c>
       <c r="R16">
-        <v>27.70301768388591</v>
+        <v>480.362059635813</v>
       </c>
       <c r="S16">
-        <v>4.794338602595783E-05</v>
+        <v>8.390607196713359E-05</v>
       </c>
       <c r="T16">
-        <v>4.794338602595783E-05</v>
+        <v>0.0001029733341746616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H17">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I17">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J17">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>26.04774267481618</v>
+        <v>50.282061668035</v>
       </c>
       <c r="R17">
-        <v>26.04774267481618</v>
+        <v>452.538555012315</v>
       </c>
       <c r="S17">
-        <v>4.507873461344719E-05</v>
+        <v>7.904606911202249E-05</v>
       </c>
       <c r="T17">
-        <v>4.507873461344719E-05</v>
+        <v>9.700891841360452E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H18">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I18">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J18">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>38.27133849527765</v>
+        <v>76.86251725088398</v>
       </c>
       <c r="R18">
-        <v>38.27133849527765</v>
+        <v>691.7626552579559</v>
       </c>
       <c r="S18">
-        <v>6.623312940656581E-05</v>
+        <v>0.0001208319557549047</v>
       </c>
       <c r="T18">
-        <v>6.623312940656581E-05</v>
+        <v>0.0001482904522547726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H19">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I19">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J19">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>46.01598988522366</v>
+        <v>88.33821811356449</v>
       </c>
       <c r="R19">
-        <v>46.01598988522366</v>
+        <v>530.029308681387</v>
       </c>
       <c r="S19">
-        <v>7.963617507695247E-05</v>
+        <v>0.0001388723664582113</v>
       </c>
       <c r="T19">
-        <v>7.963617507695247E-05</v>
+        <v>0.0001136203079123118</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H20">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I20">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J20">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>172.6302546940206</v>
+        <v>176.5730334512942</v>
       </c>
       <c r="R20">
-        <v>172.6302546940206</v>
+        <v>1059.438200707765</v>
       </c>
       <c r="S20">
-        <v>0.0002987573063337807</v>
+        <v>0.0002775821782658401</v>
       </c>
       <c r="T20">
-        <v>0.0002987573063337807</v>
+        <v>0.0002271076195351327</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H21">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I21">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J21">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>116.8244691274372</v>
+        <v>127.4208619273733</v>
       </c>
       <c r="R21">
-        <v>116.8244691274372</v>
+        <v>1146.78775734636</v>
       </c>
       <c r="S21">
-        <v>0.0002021787187434183</v>
+        <v>0.000200312356416913</v>
       </c>
       <c r="T21">
-        <v>0.0002021787187434183</v>
+        <v>0.0002458324020305985</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H22">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I22">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J22">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>88.13568992922582</v>
+        <v>90.69335045913502</v>
       </c>
       <c r="R22">
-        <v>88.13568992922582</v>
+        <v>816.240154132215</v>
       </c>
       <c r="S22">
-        <v>0.0001525293544969604</v>
+        <v>0.0001425747594783104</v>
       </c>
       <c r="T22">
-        <v>0.0001525293544969604</v>
+        <v>0.0001749742063766594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H23">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I23">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J23">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>82.86951977362483</v>
+        <v>85.44021523498056</v>
       </c>
       <c r="R23">
-        <v>82.86951977362483</v>
+        <v>768.961937114825</v>
       </c>
       <c r="S23">
-        <v>0.0001434156170864971</v>
+        <v>0.0001343165521533056</v>
       </c>
       <c r="T23">
-        <v>0.0001434156170864971</v>
+        <v>0.0001648393600821688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H24">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I24">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J24">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>121.7582453032999</v>
+        <v>130.6062201819533</v>
       </c>
       <c r="R24">
-        <v>121.7582453032999</v>
+        <v>1175.45598163758</v>
       </c>
       <c r="S24">
-        <v>0.0002107172086099086</v>
+        <v>0.0002053199086211248</v>
       </c>
       <c r="T24">
-        <v>0.0002107172086099086</v>
+        <v>0.0002519778970398673</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H25">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I25">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J25">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>146.3974453104264</v>
+        <v>150.1059447189642</v>
       </c>
       <c r="R25">
-        <v>146.3974453104264</v>
+        <v>900.635668313785</v>
       </c>
       <c r="S25">
-        <v>0.0002533582916425189</v>
+        <v>0.0002359745103276781</v>
       </c>
       <c r="T25">
-        <v>0.0002533582916425189</v>
+        <v>0.0001930657423552708</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H26">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I26">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J26">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>2863.312188518259</v>
+        <v>3346.928185041398</v>
       </c>
       <c r="R26">
-        <v>2863.312188518259</v>
+        <v>20081.56911024839</v>
       </c>
       <c r="S26">
-        <v>0.0049553042608355</v>
+        <v>0.005261548708452099</v>
       </c>
       <c r="T26">
-        <v>0.0049553042608355</v>
+        <v>0.004304807353663452</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H27">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I27">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J27">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>1937.695839947991</v>
+        <v>2415.252577425029</v>
       </c>
       <c r="R27">
-        <v>1937.695839947991</v>
+        <v>21737.27319682526</v>
       </c>
       <c r="S27">
-        <v>0.003353414444432758</v>
+        <v>0.003796905214797455</v>
       </c>
       <c r="T27">
-        <v>0.003353414444432758</v>
+        <v>0.004659734156855806</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H28">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I28">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J28">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>1461.852649555057</v>
+        <v>1719.085439687174</v>
       </c>
       <c r="R28">
-        <v>1461.852649555057</v>
+        <v>15471.76895718457</v>
       </c>
       <c r="S28">
-        <v>0.002529910881566327</v>
+        <v>0.00270249353282523</v>
       </c>
       <c r="T28">
-        <v>0.002529910881566327</v>
+        <v>0.003316622541566237</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H29">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I29">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J29">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1374.505914070772</v>
+        <v>1619.512668024925</v>
       </c>
       <c r="R29">
-        <v>1374.505914070772</v>
+        <v>14575.61401222433</v>
       </c>
       <c r="S29">
-        <v>0.002378746907113602</v>
+        <v>0.002545959852037567</v>
       </c>
       <c r="T29">
-        <v>0.002378746907113602</v>
+        <v>0.003124517314334869</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H30">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I30">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J30">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>2019.529360293588</v>
+        <v>2475.630796643021</v>
       </c>
       <c r="R30">
-        <v>2019.529360293588</v>
+        <v>22280.67716978719</v>
       </c>
       <c r="S30">
-        <v>0.003495037140579473</v>
+        <v>0.003891822979321027</v>
       </c>
       <c r="T30">
-        <v>0.003495037140579473</v>
+        <v>0.004776221539190019</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H31">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I31">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J31">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>2428.204663593064</v>
+        <v>2845.246566264306</v>
       </c>
       <c r="R31">
-        <v>2428.204663593064</v>
+        <v>17071.47939758583</v>
       </c>
       <c r="S31">
-        <v>0.00420229863999219</v>
+        <v>0.004472878582475638</v>
       </c>
       <c r="T31">
-        <v>0.00420229863999219</v>
+        <v>0.003659546206035124</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H32">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I32">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J32">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>16528.39495634144</v>
+        <v>18346.63987821179</v>
       </c>
       <c r="R32">
-        <v>16528.39495634144</v>
+        <v>73386.55951284715</v>
       </c>
       <c r="S32">
-        <v>0.02860436465166411</v>
+        <v>0.02884189143557826</v>
       </c>
       <c r="T32">
-        <v>0.02860436465166411</v>
+        <v>0.01573158946477651</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H33">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I33">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J33">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>11185.29871676126</v>
+        <v>13239.53392576057</v>
       </c>
       <c r="R33">
-        <v>11185.29871676126</v>
+        <v>79437.20355456343</v>
       </c>
       <c r="S33">
-        <v>0.0193574974507295</v>
+        <v>0.02081324987459558</v>
       </c>
       <c r="T33">
-        <v>0.0193574974507295</v>
+        <v>0.01702864234058429</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H34">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I34">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J34">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>8438.506306336036</v>
+        <v>9423.399528791457</v>
       </c>
       <c r="R34">
-        <v>8438.506306336036</v>
+        <v>56540.39717274874</v>
       </c>
       <c r="S34">
-        <v>0.01460384460435427</v>
+        <v>0.01481408410301087</v>
       </c>
       <c r="T34">
-        <v>0.01460384460435427</v>
+        <v>0.01212034359427058</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H35">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I35">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J35">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>7934.299553045033</v>
+        <v>8877.577903001153</v>
       </c>
       <c r="R35">
-        <v>7934.299553045033</v>
+        <v>53265.46741800691</v>
       </c>
       <c r="S35">
-        <v>0.01373125450295219</v>
+        <v>0.01395602354376207</v>
       </c>
       <c r="T35">
-        <v>0.01373125450295219</v>
+        <v>0.011418309723633</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H36">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I36">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J36">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>11657.68057940397</v>
+        <v>13570.50530705016</v>
       </c>
       <c r="R36">
-        <v>11657.68057940397</v>
+        <v>81423.03184230099</v>
       </c>
       <c r="S36">
-        <v>0.02017501077186902</v>
+        <v>0.02133355444866499</v>
       </c>
       <c r="T36">
-        <v>0.02017501077186902</v>
+        <v>0.01745433657638994</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H37">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I37">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J37">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>14016.74811277409</v>
+        <v>15596.60417850412</v>
       </c>
       <c r="R37">
-        <v>14016.74811277409</v>
+        <v>62386.41671401646</v>
       </c>
       <c r="S37">
-        <v>0.02425765933760473</v>
+        <v>0.02451868938760391</v>
       </c>
       <c r="T37">
-        <v>0.02425765933760473</v>
+        <v>0.01337353191699315</v>
       </c>
     </row>
   </sheetData>
